--- a/artfynd/A 16469-2023.xlsx
+++ b/artfynd/A 16469-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103437049</v>
+        <v>104160759</v>
       </c>
       <c r="B2" t="n">
-        <v>99566</v>
+        <v>90696</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,27 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221317</v>
+        <v>5448</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Trifolium aureum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Pollich</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>549570.8693672653</v>
+        <v>549365.1106590288</v>
       </c>
       <c r="R2" t="n">
-        <v>6376356.619731385</v>
+        <v>6376508.764988168</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -754,7 +761,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,17 +771,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>vägkant</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -802,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103437321</v>
+        <v>103437049</v>
       </c>
       <c r="B3" t="n">
-        <v>44332</v>
+        <v>99566</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,36 +820,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102020</v>
+        <v>221317</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Smalsprötad bastardsvärmare</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Zygaena osterodensis</t>
+          <t>Trifolium aureum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Reiss, 1921</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Pollich</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -855,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>549410.0686067103</v>
+        <v>549570.8693672653</v>
       </c>
       <c r="R3" t="n">
-        <v>6376439.505282871</v>
+        <v>6376356.619731385</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -901,6 +894,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>vägkant</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -928,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104160759</v>
+        <v>103437321</v>
       </c>
       <c r="B4" t="n">
-        <v>90696</v>
+        <v>44332</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,21 +942,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5448</v>
+        <v>102020</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Smalsprötad bastardsvärmare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Zygaena osterodensis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Reiss, 1921</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -966,12 +964,14 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>549365.1106590288</v>
+        <v>549410.0686067103</v>
       </c>
       <c r="R4" t="n">
-        <v>6376508.764988168</v>
+        <v>6376439.505282871</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
